--- a/src/public/template/Template_Mahasiswa.xlsx
+++ b/src/public/template/Template_Mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gibra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gibra\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91327181-EC68-4E24-874A-E785914BB0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F4F904-0431-4E00-A0E0-8F7164708710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5100" windowWidth="21600" windowHeight="11295" xr2:uid="{6330A468-C46E-4837-9FDC-8153514FB9C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6330A468-C46E-4837-9FDC-8153514FB9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -52,13 +49,16 @@
   </si>
   <si>
     <t>Nama</t>
+  </si>
+  <si>
+    <t>Nim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,15 +104,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2181D031-4C76-4D57-85CD-DCE437960AD5}"/>
   </cellStyles>
@@ -418,9 +429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA401F-BCA9-495D-81F0-12E475EA1559}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -434,23 +447,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
